--- a/doc/09.26.2013 Meeting/Results.xlsx
+++ b/doc/09.26.2013 Meeting/Results.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Topline" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
   <si>
     <t>test1</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>nohistory</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>schedule3</t>
+  </si>
+  <si>
+    <t>topline</t>
+  </si>
+  <si>
+    <t>topK</t>
   </si>
 </sst>
 </file>
@@ -114,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -164,19 +176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -300,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,41 +315,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -723,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,38 +766,38 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0.77480000000000004</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>0.79279999999999995</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>0.91779999999999995</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>0.82330000000000003</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -823,14 +821,14 @@
       <c r="H3" s="3">
         <v>0.62019999999999997</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>0.58409999999999995</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -840,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -854,14 +852,14 @@
       <c r="H4" s="3">
         <v>0.70330000000000004</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>0.63959999999999995</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -885,14 +883,14 @@
       <c r="H5" s="4">
         <v>0.47320000000000001</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>0.17749999999999999</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -916,75 +914,75 @@
       <c r="H6" s="3">
         <v>0.44750000000000001</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>0.15720000000000001</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>0.1043</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0.1409</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>0.49230000000000002</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>0.1162</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.78779999999999994</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.79210000000000003</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>0.82699999999999996</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1008,13 +1006,13 @@
       <c r="H9" s="3">
         <v>0.60650000000000004</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>0.59060000000000001</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1024,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1038,13 +1036,13 @@
       <c r="H10" s="3">
         <v>0.68979999999999997</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>0.64319999999999999</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1068,13 +1066,13 @@
       <c r="H11" s="4">
         <v>0.4572</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>0.1845</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1098,52 +1096,216 @@
       <c r="H12" s="3">
         <v>0.42809999999999998</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>0.16289999999999999</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.1176</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.84340000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="18">
-        <v>0.1176</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0.12939999999999999</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
+      <c r="F15" s="3">
+        <v>0.7056</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.62339999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.2122</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.24060000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.1729</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.1084</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.2485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.1376</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H19" s="17">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1152,12 +1314,578 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.81979999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.94159999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.96989999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.97640000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.98580000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.2084</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.80079999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.85189999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.4657</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.92449999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.9536</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.96030000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.61339999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.88449999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.9012</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.91339999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.92959999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.94359999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.96660000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.97109999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/09.26.2013 Meeting/Results.xlsx
+++ b/doc/09.26.2013 Meeting/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="34">
   <si>
     <t>test1</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>topK</t>
+  </si>
+  <si>
+    <t>test1-baseline</t>
+  </si>
+  <si>
+    <t>test2-baseline</t>
+  </si>
+  <si>
+    <t>test3-baseline</t>
+  </si>
+  <si>
+    <t>test4-baseline</t>
+  </si>
+  <si>
+    <t>test1-topline</t>
+  </si>
+  <si>
+    <t>test2-topline</t>
+  </si>
+  <si>
+    <t>test3-topline</t>
+  </si>
+  <si>
+    <t>test4-topline</t>
   </si>
 </sst>
 </file>
@@ -363,6 +387,657 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>schedule1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82230000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65769999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82940000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.83440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108927616"/>
+        <c:axId val="146125184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108927616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>topK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146125184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146125184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Acc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108927616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,7 +1399,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +2002,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1344,19 +2019,31 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1384,8 +2071,20 @@
       <c r="I2" s="2">
         <v>0.81979999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1401,8 +2100,20 @@
       <c r="I3" s="2">
         <v>0.92210000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1418,8 +2129,20 @@
       <c r="I4" s="2">
         <v>0.94159999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -1435,8 +2158,20 @@
       <c r="I5" s="2">
         <v>0.9556</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1452,8 +2187,20 @@
       <c r="I6" s="2">
         <v>0.96399999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -1469,8 +2216,20 @@
       <c r="I7" s="2">
         <v>0.96989999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -1486,8 +2245,20 @@
       <c r="I8" s="2">
         <v>0.97640000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -1503,8 +2274,20 @@
       <c r="I9" s="2">
         <v>0.98089999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -1520,8 +2303,20 @@
       <c r="I10" s="2">
         <v>0.98319999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -1537,8 +2332,20 @@
       <c r="I11" s="2">
         <v>0.98580000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.82330000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1557,8 +2364,20 @@
       <c r="I12" s="2">
         <v>0.59160000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1574,8 +2393,20 @@
       <c r="I13" s="2">
         <v>0.80079999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1591,8 +2422,20 @@
       <c r="I14" s="2">
         <v>0.85189999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1608,8 +2451,20 @@
       <c r="I15" s="2">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1625,8 +2480,20 @@
       <c r="I16" s="2">
         <v>0.90900000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1642,8 +2509,20 @@
       <c r="I17" s="2">
         <v>0.92449999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1659,8 +2538,20 @@
       <c r="I18" s="2">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1676,8 +2567,20 @@
       <c r="I19" s="2">
         <v>0.9536</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>9</v>
       </c>
@@ -1693,8 +2596,20 @@
       <c r="I20" s="2">
         <v>0.96030000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>10</v>
       </c>
@@ -1710,8 +2625,20 @@
       <c r="I21" s="2">
         <v>0.96560000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>1</v>
       </c>
@@ -1730,8 +2657,20 @@
       <c r="I22" s="2">
         <v>0.61339999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -1747,8 +2686,20 @@
       <c r="I23" s="2">
         <v>0.84079999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -1764,8 +2715,20 @@
       <c r="I24" s="2">
         <v>0.88449999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>4</v>
       </c>
@@ -1781,8 +2744,20 @@
       <c r="I25" s="2">
         <v>0.91339999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>5</v>
       </c>
@@ -1798,8 +2773,20 @@
       <c r="I26" s="2">
         <v>0.92959999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>6</v>
       </c>
@@ -1815,8 +2802,20 @@
       <c r="I27" s="2">
         <v>0.94359999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>7</v>
       </c>
@@ -1832,8 +2831,20 @@
       <c r="I28" s="2">
         <v>0.95489999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>8</v>
       </c>
@@ -1849,8 +2860,20 @@
       <c r="I29" s="2">
         <v>0.96660000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>9</v>
       </c>
@@ -1866,8 +2889,20 @@
       <c r="I30" s="2">
         <v>0.97109999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>10</v>
       </c>
@@ -1883,9 +2918,22 @@
       <c r="I31" s="2">
         <v>0.97609999999999997</v>
       </c>
+      <c r="J31" s="3">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.4869</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0.63959999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/09.26.2013 Meeting/Results.xlsx
+++ b/doc/09.26.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -375,6 +381,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,8 +445,74 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$F$1</c:f>
@@ -442,6 +524,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -480,64 +569,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.82230000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test1-baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$J$2:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77480000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,6 +589,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -616,6 +655,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -661,57 +707,62 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="6"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Topline!$H$1</c:f>
+              <c:f>Topline!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>test3-topline</c:v>
+                  <c:v>test3-baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Topline!$H$2:$H$11</c:f>
+              <c:f>Topline!$L$2:$L$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.83440000000000003</c:v>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94810000000000005</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96530000000000005</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97309999999999997</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97760000000000002</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98119999999999996</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98409999999999997</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98709999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9889</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,73 +770,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Topline!$I$1</c:f>
+              <c:f>Topline!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>test4-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.81979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92210000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9556</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97640000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98319999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98580000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test3-baseline</c:v>
+                  <c:v>test3-topline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -802,36 +795,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Topline!$L$2:$L$10</c:f>
+              <c:f>Topline!$H$2:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.91779999999999995</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.83440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.94810000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.96530000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.97309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.97760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.98119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.98409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.98580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.98709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +836,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$M$1</c:f>
@@ -852,6 +848,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -890,6 +894,71 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.82330000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98580000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108927616"/>
-        <c:axId val="146125184"/>
+        <c:axId val="146112512"/>
+        <c:axId val="146114432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108927616"/>
+        <c:axId val="146112512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146125184"/>
+        <c:crossAx val="146114432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -946,9 +1015,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146125184"/>
+        <c:axId val="146114432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -973,11 +1043,1878 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108927616"/>
+        <c:crossAx val="146112512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>schedule2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$J$12:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62619999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$K$12:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$12:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51549999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53910000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$L$12:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$12:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86639999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$M$12:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$12:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80079999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$J$12:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62619999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$K$12:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$12:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51549999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53910000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$L$12:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$12:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86639999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$M$12:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$12:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80079999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146319616"/>
+        <c:axId val="146334080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146319616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>topK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146334080"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146334080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Acc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146319616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>schedule3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$J$22:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59819999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67410000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69089999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$K$22:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$22:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$L$22:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$22:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95750000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$M$22:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63959999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4-topline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$22:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97609999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146241792"/>
+        <c:axId val="146252160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146241792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>topK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146252160"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146252160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Acc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146241792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1009,16 +2946,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>270782</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134711</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1032,6 +2969,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>151946</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256721</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229508</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192766</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1991,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,35 +4346,35 @@
         <v>0.82330000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="19">
         <v>0.2084</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="19">
         <v>0.16320000000000001</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="19">
         <v>0.41520000000000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="19">
         <v>0.59160000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="20">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="20">
         <v>0.49049999999999999</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="20">
         <v>0.62019999999999997</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="21">
         <v>0.58409999999999995</v>
       </c>
     </row>
@@ -2638,35 +4639,35 @@
         <v>0.58409999999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="22" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="19">
         <v>0.26850000000000002</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="19">
         <v>0.21929999999999999</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="19">
         <v>0.38030000000000003</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="19">
         <v>0.61339999999999995</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="20">
         <v>0.59819999999999995</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="20">
         <v>0.4869</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="20">
         <v>0.70330000000000004</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="21">
         <v>0.63959999999999995</v>
       </c>
     </row>

--- a/doc/09.26.2013 Meeting/Results.xlsx
+++ b/doc/09.26.2013 Meeting/Results.xlsx
@@ -975,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146112512"/>
-        <c:axId val="146114432"/>
+        <c:axId val="147021824"/>
+        <c:axId val="147023744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146112512"/>
+        <c:axId val="147021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146114432"/>
+        <c:crossAx val="147023744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146114432"/>
+        <c:axId val="147023744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1047,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146112512"/>
+        <c:crossAx val="147021824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2172,11 +2172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146319616"/>
-        <c:axId val="146334080"/>
+        <c:axId val="145783040"/>
+        <c:axId val="145797504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146319616"/>
+        <c:axId val="145783040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146334080"/>
+        <c:crossAx val="145797504"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2212,7 +2212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146334080"/>
+        <c:axId val="145797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146319616"/>
+        <c:crossAx val="145783040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,11 +2843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146241792"/>
-        <c:axId val="146252160"/>
+        <c:axId val="145832192"/>
+        <c:axId val="145842560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146241792"/>
+        <c:axId val="145832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146252160"/>
+        <c:crossAx val="145842560"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2883,7 +2883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146252160"/>
+        <c:axId val="145842560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2914,7 +2914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146241792"/>
+        <c:crossAx val="145832192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3993,7 +3993,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
